--- a/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>215406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191787</v>
+        <v>192174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238367</v>
+        <v>237404</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3736436236642927</v>
+        <v>0.3736436236642928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3326744301028401</v>
+        <v>0.3333451213036286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4134714166676222</v>
+        <v>0.4118010375006395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>497</v>
@@ -762,19 +762,19 @@
         <v>284387</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>264067</v>
+        <v>263810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>305850</v>
+        <v>305766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3462439304150804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3215046751408113</v>
+        <v>0.3211915038184554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3723758856415441</v>
+        <v>0.3722730826689164</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>735</v>
@@ -783,19 +783,19 @@
         <v>499793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>466902</v>
+        <v>470850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532585</v>
+        <v>532063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3575441135803789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3340147066409473</v>
+        <v>0.336839066209034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3810031329032334</v>
+        <v>0.3806293290399621</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8798</v>
+        <v>8652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25438</v>
+        <v>24887</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02665967981961737</v>
+        <v>0.02665967981961738</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01526113466221516</v>
+        <v>0.01500808583950718</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04412403122976533</v>
+        <v>0.04316884087259295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -833,19 +833,19 @@
         <v>12347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8076</v>
+        <v>8313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18913</v>
+        <v>18396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01503200075697474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009832372581537829</v>
+        <v>0.01012083218500862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02302725624383948</v>
+        <v>0.02239690733042325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -854,19 +854,19 @@
         <v>27716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19162</v>
+        <v>19520</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38823</v>
+        <v>39043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01982748886700841</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01370799710752191</v>
+        <v>0.01396426016899192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02777349879161658</v>
+        <v>0.02793044138246967</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>345726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>321914</v>
+        <v>322720</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>368904</v>
+        <v>369052</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5996966965160898</v>
+        <v>0.5996966965160901</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5583929554156287</v>
+        <v>0.5597904329364202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6399011938019684</v>
+        <v>0.6401590613039028</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>906</v>
@@ -904,19 +904,19 @@
         <v>524615</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>503042</v>
+        <v>504086</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>545190</v>
+        <v>545002</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6387240688279449</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6124586622764934</v>
+        <v>0.6137298532116039</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6637748949747418</v>
+        <v>0.6635453253389901</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1341</v>
@@ -925,19 +925,19 @@
         <v>870341</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>836844</v>
+        <v>837898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>902637</v>
+        <v>899762</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6226283975526128</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5986651625118705</v>
+        <v>0.5994191326920252</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6457320355953154</v>
+        <v>0.643675601177789</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>541108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491858</v>
+        <v>491680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589682</v>
+        <v>595400</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2425877368072673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2205081582949918</v>
+        <v>0.2204282638525092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2643645036219504</v>
+        <v>0.2669279623270971</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>722</v>
@@ -1050,19 +1050,19 @@
         <v>561438</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>522954</v>
+        <v>521194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>601586</v>
+        <v>601208</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2589910494634713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2412384459063768</v>
+        <v>0.2404263115957243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2775114544278633</v>
+        <v>0.2773371374174343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1164</v>
@@ -1071,19 +1071,19 @@
         <v>1102546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1042488</v>
+        <v>1039952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1168104</v>
+        <v>1165959</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2506723321852259</v>
+        <v>0.2506723321852258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2370176696379919</v>
+        <v>0.2364411198125309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2655773817165297</v>
+        <v>0.2650896756318806</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>30594</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19979</v>
+        <v>20753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43339</v>
+        <v>44839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01371571871606224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008956832319887194</v>
+        <v>0.009303774712433845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01942964986309449</v>
+        <v>0.02010223032796651</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -1121,19 +1121,19 @@
         <v>21355</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13883</v>
+        <v>13470</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32384</v>
+        <v>32274</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.009851125627970636</v>
+        <v>0.009851125627970634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006404214744436724</v>
+        <v>0.006213558749045595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01493858147235415</v>
+        <v>0.01488789550731861</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>57</v>
@@ -1142,19 +1142,19 @@
         <v>51949</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40055</v>
+        <v>39052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>72352</v>
+        <v>68935</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01181100153651991</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00910674636162769</v>
+        <v>0.008878876073052345</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01644979770477624</v>
+        <v>0.01567281973425935</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>1658864</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1608893</v>
+        <v>1606003</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1707380</v>
+        <v>1706682</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7436965444766704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7212937807137528</v>
+        <v>0.7199980621701011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7654468224369774</v>
+        <v>0.7651339285380727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2166</v>
@@ -1192,19 +1192,19 @@
         <v>1584996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1546581</v>
+        <v>1545800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1624141</v>
+        <v>1624268</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7311578249085581</v>
+        <v>0.7311578249085579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7134370096452025</v>
+        <v>0.7130767517272339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7492152343788947</v>
+        <v>0.7492742224783313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3688</v>
@@ -1213,19 +1213,19 @@
         <v>3243861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3176340</v>
+        <v>3178365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3308748</v>
+        <v>3304196</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7375166662782541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7221653217825025</v>
+        <v>0.7226257883822329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7522693013597425</v>
+        <v>0.7512342546964279</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>145407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125179</v>
+        <v>124036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168452</v>
+        <v>172407</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2043424889174456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1759159184758062</v>
+        <v>0.1743095022305095</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2367278098429209</v>
+        <v>0.2422849127007976</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>230</v>
@@ -1338,19 +1338,19 @@
         <v>167431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148778</v>
+        <v>146317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>186019</v>
+        <v>187699</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2285817360935517</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2031162602192257</v>
+        <v>0.1997568603041943</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2539585172937267</v>
+        <v>0.256252933895961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>364</v>
@@ -1359,19 +1359,19 @@
         <v>312838</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>282194</v>
+        <v>284542</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>344614</v>
+        <v>346647</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2166374372495646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1954162426048119</v>
+        <v>0.197042420125997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2386418342210525</v>
+        <v>0.2400494133897305</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>7570</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2966</v>
+        <v>2651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20761</v>
+        <v>18785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01063810393187542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004168608875644927</v>
+        <v>0.003725809668557797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0291753143995414</v>
+        <v>0.02639938763481368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1409,19 +1409,19 @@
         <v>7187</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3547</v>
+        <v>3938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12238</v>
+        <v>12494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009811915461735937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004841954202105091</v>
+        <v>0.005376057121095833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01670703650049232</v>
+        <v>0.01705753686776699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1430,19 +1430,19 @@
         <v>14757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8776</v>
+        <v>8907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25263</v>
+        <v>24760</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01021903379825466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006077043339953573</v>
+        <v>0.006168016574592121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01749441729560679</v>
+        <v>0.01714632235938526</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>558610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>532884</v>
+        <v>532710</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>579433</v>
+        <v>582150</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7850194071506791</v>
+        <v>0.7850194071506787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7488668818075775</v>
+        <v>0.7486229490891013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8142822588285605</v>
+        <v>0.8181006662351031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>759</v>
@@ -1480,19 +1480,19 @@
         <v>557859</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>538453</v>
+        <v>537442</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577143</v>
+        <v>579030</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7616063484447122</v>
+        <v>0.7616063484447121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7351130041984631</v>
+        <v>0.7337324296377051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7879329512767168</v>
+        <v>0.7905092086415536</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1300</v>
@@ -1501,19 +1501,19 @@
         <v>1116469</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1084255</v>
+        <v>1083836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1148091</v>
+        <v>1145542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7731435289521807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7508355791382504</v>
+        <v>0.750545355048186</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7950417246757535</v>
+        <v>0.7932761573549205</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>901922</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>845840</v>
+        <v>846921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>962633</v>
+        <v>959123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2563256752190414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2403871823177834</v>
+        <v>0.2406944389490994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2735799587254149</v>
+        <v>0.2725822958521718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1449</v>
@@ -1626,19 +1626,19 @@
         <v>1013256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>963971</v>
+        <v>965487</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1062792</v>
+        <v>1066064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2722624093581028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2590195669840809</v>
+        <v>0.2594268065211376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2855727015852416</v>
+        <v>0.2864519356618986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2263</v>
@@ -1647,19 +1647,19 @@
         <v>1915177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1836019</v>
+        <v>1842203</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1993951</v>
+        <v>1995577</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2645174126675491</v>
+        <v>0.2645174126675492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2535843939938846</v>
+        <v>0.2544384204174898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2753972709858415</v>
+        <v>0.2756219189497565</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>53533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40205</v>
+        <v>39726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71114</v>
+        <v>71667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01521408089992722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01142618232171786</v>
+        <v>0.01129020027114435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02021069507072318</v>
+        <v>0.0203678320279832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -1697,19 +1697,19 @@
         <v>40889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31294</v>
+        <v>31293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54369</v>
+        <v>53986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01098681088286699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008408647737922829</v>
+        <v>0.008408326975238479</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01460904738537201</v>
+        <v>0.01450618953368577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -1718,19 +1718,19 @@
         <v>94422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77574</v>
+        <v>76726</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117959</v>
+        <v>115907</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0130411961795358</v>
+        <v>0.01304119617953581</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01071420620961261</v>
+        <v>0.01059715396804178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01629211219630498</v>
+        <v>0.01600867556801536</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>2563200</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2503143</v>
+        <v>2504631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2617881</v>
+        <v>2620253</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7284602438810315</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7113918873129882</v>
+        <v>0.7118148984326724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7440006186744333</v>
+        <v>0.7446745571088536</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3831</v>
@@ -1768,19 +1768,19 @@
         <v>2667470</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2617883</v>
+        <v>2608642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2719180</v>
+        <v>2711442</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7167507797590303</v>
+        <v>0.7167507797590302</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7034266221064809</v>
+        <v>0.7009435154092666</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7306451094613119</v>
+        <v>0.7285660840844936</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6329</v>
@@ -1789,19 +1789,19 @@
         <v>5230671</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5150619</v>
+        <v>5151576</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5306574</v>
+        <v>5304857</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7224413911529148</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.711384966415283</v>
+        <v>0.7115170765910693</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7329249202310376</v>
+        <v>0.7326877816208734</v>
       </c>
     </row>
     <row r="19">
